--- a/documentacao/planilhas de projeto e prática.xlsx
+++ b/documentacao/planilhas de projeto e prática.xlsx
@@ -405,8 +405,8 @@
   </sheetPr>
   <dimension ref="B2:P50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K51" activeCellId="0" sqref="K51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C35" s="1"/>
       <c r="F35" s="11" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G35" s="10" t="n">
         <v>42410</v>
@@ -1038,7 +1038,7 @@
         <v>42416</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M36" s="12" t="s">
         <v>45</v>
@@ -1061,7 +1061,7 @@
         <v>42416</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M37" s="12" t="s">
         <v>47</v>
@@ -1244,7 +1244,7 @@
         <v>42415</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M49" s="12" t="s">
         <v>10</v>
@@ -1269,7 +1269,7 @@
         <v>42418</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>

--- a/documentacao/planilhas de projeto e prática.xlsx
+++ b/documentacao/planilhas de projeto e prática.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="468" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="22830" windowHeight="10590" tabRatio="468"/>
   </bookViews>
   <sheets>
-    <sheet name="Padaria Santa Maria" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Padaria Santa Maria" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>Iteração 1 ( Cadastro de Produto )</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> Duração</t>
     </r>
     <r>
@@ -28,10 +35,9 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">:</t>
+      <t>:</t>
     </r>
   </si>
   <si>
@@ -47,7 +53,7 @@
     <t>Comentários Diversos</t>
   </si>
   <si>
-    <t>Porcentagem </t>
+    <t>Porcentagem</t>
   </si>
   <si>
     <t>Tela de Login ( Produtos )</t>
@@ -107,7 +113,7 @@
     <t>Tela de Cadastro de Administrador</t>
   </si>
   <si>
-    <t>Faltando Alterar, Controlador </t>
+    <t>Faltando Alterar, Controlador</t>
   </si>
   <si>
     <t>Tabela no Banco ( Administrador )</t>
@@ -201,261 +207,1118 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="13">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:P50"/>
+  <dimension ref="B1:P53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.004048582996"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.71255060728745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="3.71255060728745"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.1376518218624"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="7.14166666666667"/>
+    <col min="2" max="2" width="20.8583333333333"/>
+    <col min="3" max="3" width="16"/>
+    <col min="4" max="4" width="3.71666666666667"/>
+    <col min="5" max="5" width="12.7166666666667"/>
+    <col min="6" max="6" width="12.5666666666667"/>
+    <col min="7" max="7" width="12.1416666666667"/>
+    <col min="8" max="9" width="13"/>
+    <col min="10" max="10" width="13.425"/>
+    <col min="11" max="11" width="5.14166666666667"/>
+    <col min="12" max="12" width="3.71666666666667"/>
+    <col min="13" max="13" width="16.1416666666667"/>
+    <col min="14" max="14" width="11.1416666666667"/>
+    <col min="15" max="15" width="14.8583333333333"/>
+    <col min="16" max="1025" width="8.575"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="13.5"/>
+    <row r="2" ht="14.25" spans="2:15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:16">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -463,25 +1326,25 @@
       <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="9">
         <v>42373</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="10">
         <v>42373</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13" t="n">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16">
         <v>0.7</v>
       </c>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="2:15">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -489,20 +1352,20 @@
       <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="10">
         <v>42373</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="10">
         <v>42373</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -510,20 +1373,20 @@
       <c r="F5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="10">
         <v>42373</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="10">
         <v>42373</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -531,20 +1394,20 @@
       <c r="F6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="10">
         <v>42374</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="10">
         <v>42376</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
@@ -552,34 +1415,34 @@
       <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="10">
         <v>42377</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="10">
         <v>42377</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="13:15">
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -587,24 +1450,24 @@
       <c r="F10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="10">
         <v>42378</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="10">
         <v>42378</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13" t="n">
+      <c r="N10" s="15"/>
+      <c r="O10" s="16">
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:15">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -612,20 +1475,20 @@
       <c r="F11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="10">
         <v>42378</v>
       </c>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="10">
         <v>42378</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -633,20 +1496,20 @@
       <c r="F12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="10">
         <v>42378</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="10">
         <v>42381</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -654,39 +1517,39 @@
       <c r="F13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="10">
         <v>42381</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H13" s="10">
         <v>42381</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="13:15">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="13:15">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
@@ -694,24 +1557,24 @@
       <c r="F17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="10" t="n">
+      <c r="G17" s="10">
         <v>42384</v>
       </c>
-      <c r="H17" s="10" t="n">
+      <c r="H17" s="10">
         <v>42384</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13" t="n">
+      <c r="N17" s="15"/>
+      <c r="O17" s="16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:15">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -719,22 +1582,22 @@
       <c r="F18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="10" t="n">
+      <c r="G18" s="10">
         <v>42384</v>
       </c>
-      <c r="H18" s="10" t="n">
+      <c r="H18" s="10">
         <v>42384</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
@@ -742,22 +1605,22 @@
       <c r="F19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="10" t="n">
+      <c r="G19" s="10">
         <v>42387</v>
       </c>
-      <c r="H19" s="10" t="n">
+      <c r="H19" s="10">
         <v>42390</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N19" s="15"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="2:15">
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
@@ -765,34 +1628,34 @@
       <c r="F20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="10" t="n">
+      <c r="G20" s="10">
         <v>42391</v>
       </c>
-      <c r="H20" s="10" t="n">
+      <c r="H20" s="10">
         <v>42391</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="13:15">
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="18"/>
+    </row>
+    <row r="22" spans="2:15">
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="15"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="2:15">
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
@@ -800,24 +1663,24 @@
       <c r="F23" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="10" t="n">
+      <c r="G23" s="10">
         <v>42385</v>
       </c>
-      <c r="H23" s="10" t="n">
+      <c r="H23" s="10">
         <v>42385</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="13" t="n">
+      <c r="N23" s="15"/>
+      <c r="O23" s="16">
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:15">
       <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
@@ -825,42 +1688,42 @@
       <c r="F24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="G24" s="10">
         <v>42385</v>
       </c>
-      <c r="H24" s="10" t="n">
+      <c r="H24" s="10">
         <v>42385</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="2:15">
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="16"/>
+      <c r="D25" s="3"/>
       <c r="F25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="10" t="n">
+      <c r="G25" s="10">
         <v>42386</v>
       </c>
-      <c r="H25" s="10" t="n">
+      <c r="H25" s="10">
         <v>42389</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="2:15">
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
@@ -868,34 +1731,34 @@
       <c r="F26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="10" t="n">
+      <c r="G26" s="10">
         <v>42387</v>
       </c>
-      <c r="H26" s="10" t="n">
+      <c r="H26" s="10">
         <v>42387</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="15"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="16"/>
+    </row>
+    <row r="27" spans="13:15">
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="18"/>
+    </row>
+    <row r="28" spans="2:15">
       <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="15"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="18"/>
+    </row>
+    <row r="29" spans="2:15">
       <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
@@ -903,46 +1766,46 @@
       <c r="F29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="10" t="n">
+      <c r="G29" s="10">
         <v>42390</v>
       </c>
-      <c r="H29" s="10" t="n">
+      <c r="H29" s="10">
         <v>42390</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="12"/>
-      <c r="O29" s="13" t="n">
+      <c r="N29" s="15"/>
+      <c r="O29" s="16">
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:15">
       <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="16"/>
+      <c r="D30" s="3"/>
       <c r="F30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="10" t="n">
+      <c r="G30" s="10">
         <v>42391</v>
       </c>
-      <c r="H30" s="10" t="n">
+      <c r="H30" s="10">
         <v>42394</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="13"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="16"/>
+    </row>
+    <row r="31" spans="2:15">
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
@@ -950,20 +1813,20 @@
       <c r="F31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="10" t="n">
+      <c r="G31" s="10">
         <v>42392</v>
       </c>
-      <c r="H31" s="10" t="n">
+      <c r="H31" s="10">
         <v>42397</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="13"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="16"/>
+    </row>
+    <row r="32" spans="2:15">
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
@@ -971,34 +1834,34 @@
       <c r="F32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="10" t="n">
+      <c r="G32" s="10">
         <v>42397</v>
       </c>
-      <c r="H32" s="10" t="n">
+      <c r="H32" s="10">
         <v>42397</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="13"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="15"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="13:15">
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="18"/>
+    </row>
+    <row r="34" spans="2:15">
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="15"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="18"/>
+    </row>
+    <row r="35" spans="2:15">
       <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1006,24 +1869,24 @@
       <c r="F35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="10" t="n">
+      <c r="G35" s="10">
         <v>42410</v>
       </c>
-      <c r="H35" s="10" t="n">
+      <c r="H35" s="10">
         <v>42410</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M35" s="12" t="s">
+      <c r="M35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="12"/>
-      <c r="O35" s="13" t="n">
+      <c r="N35" s="15"/>
+      <c r="O35" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:15">
       <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1031,22 +1894,22 @@
       <c r="F36" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="10" t="n">
+      <c r="G36" s="10">
         <v>42411</v>
       </c>
-      <c r="H36" s="10" t="n">
+      <c r="H36" s="10">
         <v>42416</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M36" s="12" t="s">
+      <c r="M36" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N36" s="12"/>
-      <c r="O36" s="13"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N36" s="15"/>
+      <c r="O36" s="16"/>
+    </row>
+    <row r="37" spans="2:15">
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -1054,41 +1917,41 @@
       <c r="F37" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="10" t="n">
+      <c r="G37" s="10">
         <v>42416</v>
       </c>
-      <c r="H37" s="10" t="n">
+      <c r="H37" s="10">
         <v>42416</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="12" t="s">
+      <c r="M37" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="N37" s="12"/>
-      <c r="O37" s="13"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="13"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="15"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N37" s="15"/>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="13:15">
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="16"/>
+    </row>
+    <row r="39" spans="13:15">
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="18"/>
+    </row>
+    <row r="40" spans="2:15">
       <c r="B40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="15"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="18"/>
+    </row>
+    <row r="41" spans="2:15">
       <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1096,20 +1959,20 @@
       <c r="F41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="10" t="n">
+      <c r="G41" s="10">
         <v>42412</v>
       </c>
-      <c r="H41" s="10" t="n">
+      <c r="H41" s="10">
         <v>42412</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="15"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="18"/>
+    </row>
+    <row r="42" spans="2:15">
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1117,24 +1980,24 @@
       <c r="F42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="10" t="n">
+      <c r="G42" s="10">
         <v>42412</v>
       </c>
-      <c r="H42" s="10" t="n">
+      <c r="H42" s="10">
         <v>42412</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="12" t="s">
+      <c r="M42" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N42" s="12"/>
-      <c r="O42" s="13" t="n">
+      <c r="N42" s="15"/>
+      <c r="O42" s="16">
         <v>0.7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:15">
       <c r="B43" s="1" t="s">
         <v>38</v>
       </c>
@@ -1142,20 +2005,20 @@
       <c r="F43" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="10" t="n">
+      <c r="G43" s="10">
         <v>42412</v>
       </c>
-      <c r="H43" s="10" t="n">
+      <c r="H43" s="10">
         <v>42415</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="13"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row r="44" spans="2:15">
       <c r="B44" s="1" t="s">
         <v>39</v>
       </c>
@@ -1163,20 +2026,20 @@
       <c r="F44" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="10" t="n">
+      <c r="G44" s="10">
         <v>42413</v>
       </c>
-      <c r="H44" s="10" t="n">
+      <c r="H44" s="10">
         <v>42418</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="13"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="16"/>
+    </row>
+    <row r="45" spans="2:15">
       <c r="B45" s="1" t="s">
         <v>51</v>
       </c>
@@ -1184,31 +2047,31 @@
       <c r="F45" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="10" t="n">
+      <c r="G45" s="10">
         <v>42418</v>
       </c>
-      <c r="H45" s="10" t="n">
+      <c r="H45" s="10">
         <v>42418</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="13"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="13"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="16"/>
+    </row>
+    <row r="46" spans="13:15">
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="16"/>
+    </row>
+    <row r="47" spans="2:3">
       <c r="B47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="2:15">
       <c r="B48" s="1" t="s">
         <v>53</v>
       </c>
@@ -1216,20 +2079,20 @@
       <c r="F48" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="10" t="n">
+      <c r="G48" s="10">
         <v>42412</v>
       </c>
-      <c r="H48" s="10" t="n">
+      <c r="H48" s="10">
         <v>42412</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="15"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="18"/>
+    </row>
+    <row r="49" spans="2:15">
       <c r="B49" s="1" t="s">
         <v>54</v>
       </c>
@@ -1237,24 +2100,24 @@
       <c r="F49" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="10" t="n">
+      <c r="G49" s="10">
         <v>42412</v>
       </c>
-      <c r="H49" s="10" t="n">
+      <c r="H49" s="10">
         <v>42415</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M49" s="12" t="s">
+      <c r="M49" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N49" s="12"/>
-      <c r="O49" s="13" t="n">
+      <c r="N49" s="15"/>
+      <c r="O49" s="16">
         <v>0.7</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="2:15">
       <c r="B50" s="1" t="s">
         <v>55</v>
       </c>
@@ -1262,26 +2125,29 @@
       <c r="F50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="10" t="n">
+      <c r="G50" s="10">
         <v>42418</v>
       </c>
-      <c r="H50" s="10" t="n">
+      <c r="H50" s="10">
         <v>42418</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="13"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="16"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="97">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:O7"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="B5:C5"/>
@@ -1295,7 +2161,6 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:O13"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="B12:C12"/>
@@ -1308,7 +2173,6 @@
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:O20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="B19:C19"/>
@@ -1320,7 +2184,6 @@
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:O26"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="B25:C25"/>
@@ -1332,7 +2195,6 @@
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:O32"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="B31:C31"/>
@@ -1344,7 +2206,6 @@
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:O38"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="B37:C37"/>
@@ -1357,7 +2218,6 @@
     <mergeCell ref="M41:N41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:O46"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="B44:C44"/>
@@ -1370,16 +2230,20 @@
     <mergeCell ref="M48:N48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:O53"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="M50:N50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="O29:O32"/>
+    <mergeCell ref="O35:O38"/>
+    <mergeCell ref="O42:O46"/>
+    <mergeCell ref="O49:O53"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>